--- a/data/trans_bre/P07_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P07_R-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.431589485122723</v>
+        <v>9.442542585236257</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.90931523052443</v>
+        <v>10.91818817297507</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.343053669756967</v>
+        <v>6.174694555807399</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7217198648691222</v>
+        <v>0.7608468531828542</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2993494117446036</v>
+        <v>0.2919552391488803</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4852802139698011</v>
+        <v>0.4628325977520233</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2729709519486868</v>
+        <v>0.2548626674675572</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.01983965509153347</v>
+        <v>0.01129441813321864</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.19854583237385</v>
+        <v>19.67381900105116</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.49321273899856</v>
+        <v>18.64501760435308</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.88567667267424</v>
+        <v>13.51563718343818</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.60321144112266</v>
+        <v>11.65356825960534</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7229117132466739</v>
+        <v>0.7562190561596608</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.951150900041412</v>
+        <v>0.9738816489383</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7003949562327568</v>
+        <v>0.674972251469959</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.412745850641484</v>
+        <v>0.4119682659560215</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>6.929984966157537</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.527208274547998</v>
+        <v>8.527208274548004</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7458728318191676</v>
@@ -749,7 +749,7 @@
         <v>0.4922664333250916</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4366866937790371</v>
+        <v>0.4366866937790375</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.992371791000153</v>
+        <v>8.078498250138095</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.424333440852807</v>
+        <v>6.849249062230832</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.06249597214384</v>
+        <v>3.069509509684675</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.945085330875059</v>
+        <v>4.94503506755941</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4826440047613197</v>
+        <v>0.4839367613998076</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4091577972511231</v>
+        <v>0.386117909492376</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.183509309433792</v>
+        <v>0.188914303289435</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2260309740531514</v>
+        <v>0.2282442723113456</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.63287374736713</v>
+        <v>14.84369467790362</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.6083120130059</v>
+        <v>14.23212439906761</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.74929873815972</v>
+        <v>10.52639199814912</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.95656462010977</v>
+        <v>12.08201281664803</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.096935827444032</v>
+        <v>1.107235224771277</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.018129434181559</v>
+        <v>1.019293801342767</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8939238149368766</v>
+        <v>0.8573028221755773</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6796636879890476</v>
+        <v>0.6877799649841231</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.135363031345425</v>
+        <v>7.032227550553341</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8433586930657467</v>
+        <v>1.064729085374532</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.677450808965973</v>
+        <v>4.250761618908953</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.98816627736947</v>
+        <v>4.058697215070238</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5688607415359411</v>
+        <v>0.5609824599239042</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0515592642851177</v>
+        <v>0.07251130624256516</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2822860313108708</v>
+        <v>0.313530455952134</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2613671846734374</v>
+        <v>0.2629913893643729</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.47102920552946</v>
+        <v>13.50856013449972</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.436615755113881</v>
+        <v>8.611140499177971</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.77678095492464</v>
+        <v>11.53758477664574</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.559796860137784</v>
+        <v>9.690233284865867</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.34890840383804</v>
+        <v>1.397070343775628</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6476852739300648</v>
+        <v>0.6754636995458416</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.161681608483204</v>
+        <v>1.137342205666383</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7800555350610652</v>
+        <v>0.7946499993554553</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6010526230768489</v>
+        <v>0.6539037540688102</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.981300872462589</v>
+        <v>0.8584434683295104</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4058118233633896</v>
+        <v>0.2749272108828124</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.4582720012267367</v>
+        <v>-0.3928414235667096</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04850792514262324</v>
+        <v>0.02447577393554735</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05794910646223094</v>
+        <v>0.07133320767688608</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02953712355119123</v>
+        <v>0.01331338538937635</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0344897997084303</v>
+        <v>-0.04362598038271479</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.14650540258235</v>
+        <v>10.1490991498755</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.79292462099014</v>
+        <v>10.75304701636183</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.986091099599948</v>
+        <v>9.583653071120928</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.325118980433043</v>
+        <v>5.206801212565169</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.350906787985678</v>
+        <v>1.318701804915452</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.071157868175548</v>
+        <v>1.078757296021429</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.05080354709447</v>
+        <v>1.019819000037286</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4977410834727271</v>
+        <v>0.4816053757921168</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.172791032838916</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.898387151195312</v>
+        <v>6.898387151195309</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8359951105299385</v>
@@ -1049,7 +1049,7 @@
         <v>0.5214013419661577</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.396468275192935</v>
+        <v>0.3964682751929349</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.86783026112832</v>
+        <v>10.86544602586536</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.022833055524975</v>
+        <v>8.023439658331432</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.228333105052176</v>
+        <v>6.258266537149518</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.154327642680819</v>
+        <v>5.044524644808195</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6560376653810158</v>
+        <v>0.6625298594384611</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4447590808523272</v>
+        <v>0.4520920640654664</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3755726694652414</v>
+        <v>0.3731462826188165</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2833577026636984</v>
+        <v>0.2703681046674302</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.81465362631975</v>
+        <v>14.90867181732571</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.05266356912856</v>
+        <v>11.97068722030694</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.13356522936063</v>
+        <v>10.03057870630683</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.786092840739695</v>
+        <v>8.562512160537333</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.025725614290808</v>
+        <v>1.022359326419753</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7772755857450876</v>
+        <v>0.7601350154223792</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6851094929248588</v>
+        <v>0.6831696118731984</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5374553155955439</v>
+        <v>0.5229006723867088</v>
       </c>
     </row>
     <row r="19">
